--- a/biology/Zoologie/Heniochus_pleurotaenia/Heniochus_pleurotaenia.xlsx
+++ b/biology/Zoologie/Heniochus_pleurotaenia/Heniochus_pleurotaenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Heniochus pleurotaenia, communément nommé poisson-cocher fantôme[1], est un poisson osseux de petite taille appartenant à la famille des Chaetodontidae natif de la partie centrale du bassin Indo-Pacifique. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Heniochus pleurotaenia, communément nommé poisson-cocher fantôme, est un poisson osseux de petite taille appartenant à la famille des Chaetodontidae natif de la partie centrale du bassin Indo-Pacifique. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-cocher fantôme est un poisson de petite taille qui peut atteindre une longueur maximale de 17 cm[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-cocher fantôme est un poisson de petite taille qui peut atteindre une longueur maximale de 17 cm,.
 Son corps est compressé latéralement, les premiers rayons de sa nageoire dorsale s'étirent légèrement en un filament ressemblant à une plume. 
 La teinte de fond du corps est blanche avec des zones chocolat à noires.
 Une première zone brun foncé se dégradant en chocolat sur ses bords externes masque le visage. Elle couvre la bouche, les yeux et remonte jusqu'aux premiers rayons de la nageoire dorsale. Le museau étiré vers l'avant est doté d'une petite bouche protractile terminale. Une petite corne orne l'axe entre les yeux et une excroissance frontale arrondie donnent l'impression que le profil de son front est concave.
@@ -550,10 +564,12 @@
           <t>Distribution &amp; habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-cocher fantôme est présent dans les eaux tropicales et subtropicales de la zone centrale du bassin Indo-Pacifique soit des Maldives aux côtes occidentales de la Thaïlande et de la pointe sud de l'Inde à l'île de Java en Indonésie[1],[3].
-Le poisson-cocher fantôme apprécie les zones riches en corail et peu profondes des lagons et pentes récifales externes soit de la surface à 25 mètres de profondeur[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-cocher fantôme est présent dans les eaux tropicales et subtropicales de la zone centrale du bassin Indo-Pacifique soit des Maldives aux côtes occidentales de la Thaïlande et de la pointe sud de l'Inde à l'île de Java en Indonésie,.
+Le poisson-cocher fantôme apprécie les zones riches en corail et peu profondes des lagons et pentes récifales externes soit de la surface à 25 mètres de profondeur.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-cocher fantôme des côtes continentales vit généralement en couple et celui des iles vit en petits groupes [4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-cocher fantôme des côtes continentales vit généralement en couple et celui des iles vit en petits groupes .
 Son régime alimentaire se compose de zooplancton.
 </t>
         </is>
@@ -614,9 +632,11 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce ne fait face à aucune menace importante en-dehors d'une collecte occasionnelle pour l'aquariophilie dans certaines zones géographiques, le poisson-cocher fantôme est toutefois classé en "préoccupation mineure"(LC) par l'UICN[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce ne fait face à aucune menace importante en-dehors d'une collecte occasionnelle pour l'aquariophilie dans certaines zones géographiques, le poisson-cocher fantôme est toutefois classé en "préoccupation mineure"(LC) par l'UICN.
 </t>
         </is>
       </c>
